--- a/DatidiTest.xlsx
+++ b/DatidiTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\source\repos\simqueue_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A17F5622-CBA8-4B8C-84FA-A3333C4C01F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF98A40-4FC4-444F-BF9A-79459148CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E05CBEE7-E4ED-4D59-9132-7BB50696BE1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="132">
   <si>
     <t>K</t>
   </si>
@@ -405,6 +405,33 @@
   <si>
     <t>Dati di Test con modifica in verticale del coefficiente K di coda del buffer e in orizzontale del valor medio del lotto di arrivi (batch)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> +/- 3.53e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +/- 1.74e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +/- 3.04e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +/- 6.47e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +/- 1.89e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +/- 8.81e-0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +/- 1.86e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +/- 8.28e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +/- 1.61e-01</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -597,6 +624,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -779,34 +807,34 @@
                   <c:v>0.21105099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21105099999999999</c:v>
+                  <c:v>0.46281899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46281899999999998</c:v>
+                  <c:v>0.74077599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74077599999999999</c:v>
+                  <c:v>1.0550930000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0550930000000001</c:v>
+                  <c:v>1.3517079999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3517079999999999</c:v>
+                  <c:v>1.7131989999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7131989999999999</c:v>
+                  <c:v>1.9839830000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9839830000000001</c:v>
+                  <c:v>2.4378890000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4378890000000002</c:v>
+                  <c:v>2.8665060000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8665060000000002</c:v>
+                  <c:v>3.1824089999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1824089999999998</c:v>
+                  <c:v>3.5697909999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,34 +936,34 @@
                   <c:v>0.80614799999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80614799999999998</c:v>
+                  <c:v>0.60648400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60648400000000002</c:v>
+                  <c:v>0.54430199999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54430199999999995</c:v>
+                  <c:v>0.48702000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48702000000000001</c:v>
+                  <c:v>0.45880700000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45880700000000002</c:v>
+                  <c:v>0.46263900000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46263900000000002</c:v>
+                  <c:v>0.43206600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43206600000000001</c:v>
+                  <c:v>0.44443899999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44443899999999997</c:v>
+                  <c:v>0.46662500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46662500000000001</c:v>
+                  <c:v>0.42926799999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42926799999999998</c:v>
+                  <c:v>0.43523400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,34 +1363,34 @@
                   <c:v>0.23182900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23182900000000001</c:v>
+                  <c:v>0.52823900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52823900000000001</c:v>
+                  <c:v>0.83213400000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83213400000000004</c:v>
+                  <c:v>1.215368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.215368</c:v>
+                  <c:v>1.579167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.579167</c:v>
+                  <c:v>1.9261950000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9261950000000001</c:v>
+                  <c:v>2.3165939999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3165939999999998</c:v>
+                  <c:v>2.6767409999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6767409999999998</c:v>
+                  <c:v>3.075034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.075034</c:v>
+                  <c:v>3.4637020000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4637020000000001</c:v>
+                  <c:v>3.8523520000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,28 +1492,28 @@
                   <c:v>1.564179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.564179</c:v>
+                  <c:v>1.2870870000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2870870000000001</c:v>
+                  <c:v>1.1324449999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1324449999999999</c:v>
+                  <c:v>1.157437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.157437</c:v>
+                  <c:v>1.1203320000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1203320000000001</c:v>
+                  <c:v>1.080206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.080206</c:v>
+                  <c:v>1.088902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.088902</c:v>
+                  <c:v>1.068754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.068754</c:v>
+                  <c:v>1.083124</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.083124</c:v>
@@ -1890,34 +1918,34 @@
                   <c:v>0.241984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.241984</c:v>
+                  <c:v>0.54780099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54780099999999998</c:v>
+                  <c:v>0.86550700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86550700000000003</c:v>
+                  <c:v>1.2253940000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2253940000000001</c:v>
+                  <c:v>1.662374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.662374</c:v>
+                  <c:v>1.980566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.980566</c:v>
+                  <c:v>2.380125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.380125</c:v>
+                  <c:v>2.7602959999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7602959999999999</c:v>
+                  <c:v>3.1483500000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1483500000000002</c:v>
+                  <c:v>3.530621</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.530621</c:v>
+                  <c:v>3.923314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,34 +2047,34 @@
                   <c:v>2.4325290000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4325290000000002</c:v>
+                  <c:v>2.0135700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0135700000000001</c:v>
+                  <c:v>1.835982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.835982</c:v>
+                  <c:v>1.7769680000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7769680000000001</c:v>
+                  <c:v>1.8843049999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8843049999999999</c:v>
+                  <c:v>1.7679819999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7679819999999999</c:v>
+                  <c:v>1.804824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.804824</c:v>
+                  <c:v>1.784446</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.784446</c:v>
+                  <c:v>1.769523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.769523</c:v>
+                  <c:v>1.7920529999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7920529999999999</c:v>
+                  <c:v>1.788481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,34 +2473,34 @@
                   <c:v>0.247003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.247003</c:v>
+                  <c:v>0.54035100000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54035100000000003</c:v>
+                  <c:v>0.89481900000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89481900000000003</c:v>
+                  <c:v>1.2366360000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2366360000000001</c:v>
+                  <c:v>1.6426460000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6426460000000001</c:v>
+                  <c:v>1.998246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.998246</c:v>
+                  <c:v>2.395597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.395597</c:v>
+                  <c:v>2.784646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.784646</c:v>
+                  <c:v>3.1733250000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1733250000000002</c:v>
+                  <c:v>3.5619930000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5619930000000002</c:v>
+                  <c:v>3.9511240000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,22 +2602,22 @@
                   <c:v>3.3336589999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3336589999999999</c:v>
+                  <c:v>2.7194210000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7194210000000001</c:v>
+                  <c:v>2.6169210000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6169210000000001</c:v>
+                  <c:v>2.488591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.488591</c:v>
+                  <c:v>2.5282079999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5282079999999998</c:v>
+                  <c:v>2.4828700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4828700000000001</c:v>
+                  <c:v>2.5131429999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.5131429999999999</c:v>
@@ -3000,34 +3028,34 @@
                   <c:v>0.18163000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18163000000000001</c:v>
+                  <c:v>0.33308599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33308599999999999</c:v>
+                  <c:v>0.49675000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49675000000000002</c:v>
+                  <c:v>0.644594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.644594</c:v>
+                  <c:v>0.68963399999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68963399999999997</c:v>
+                  <c:v>0.90133099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90133099999999999</c:v>
+                  <c:v>1.068287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.068287</c:v>
+                  <c:v>1.0863309999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0863309999999999</c:v>
+                  <c:v>1.143057</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.143057</c:v>
+                  <c:v>1.342838</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.342838</c:v>
+                  <c:v>1.2945599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,34 +3157,34 @@
                   <c:v>0.29925400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29925400000000002</c:v>
+                  <c:v>0.17547199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17547199999999999</c:v>
+                  <c:v>8.9969999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9969999999999994E-2</c:v>
+                  <c:v>6.7970000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7970000000000003E-2</c:v>
+                  <c:v>5.0962E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0962E-2</c:v>
+                  <c:v>4.2111000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2111000000000003E-2</c:v>
+                  <c:v>3.7911E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7911E-2</c:v>
+                  <c:v>1.9018E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9018E-2</c:v>
+                  <c:v>1.2630000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2630000000000001E-2</c:v>
+                  <c:v>2.8396999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8396999999999999E-2</c:v>
+                  <c:v>1.5048000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6654,8 +6682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59344396-D438-4015-A0B9-06665B5135F1}">
   <dimension ref="B1:BO182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BM15" sqref="BM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6664,7 +6692,7 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -6672,31 +6700,31 @@
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="26.28515625" customWidth="1"/>
     <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="25.5703125" customWidth="1"/>
     <col min="42" max="42" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="26" customWidth="1"/>
     <col min="55" max="55" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6880,11 +6908,11 @@
       <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="20">
-        <v>0.18163000000000001</v>
+      <c r="J5" s="16">
+        <v>0.33308599999999999</v>
       </c>
       <c r="K5" s="20">
-        <v>0.29925400000000002</v>
+        <v>0.17547199999999999</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>12</v>
@@ -6897,10 +6925,10 @@
         <v>1</v>
       </c>
       <c r="W5" s="20">
-        <v>0.21105099999999999</v>
+        <v>0.46281899999999998</v>
       </c>
       <c r="X5" s="20">
-        <v>0.80614799999999998</v>
+        <v>0.60648400000000002</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>12</v>
@@ -6913,10 +6941,10 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="20">
-        <v>0.23182900000000001</v>
+        <v>0.52823900000000001</v>
       </c>
       <c r="AK5" s="20">
-        <v>1.564179</v>
+        <v>1.2870870000000001</v>
       </c>
       <c r="AO5" s="7" t="s">
         <v>12</v>
@@ -6929,10 +6957,10 @@
         <v>1</v>
       </c>
       <c r="AW5" s="20">
-        <v>0.241984</v>
+        <v>0.54780099999999998</v>
       </c>
       <c r="AX5" s="20">
-        <v>2.4325290000000002</v>
+        <v>2.0135700000000001</v>
       </c>
       <c r="BB5" s="7" t="s">
         <v>12</v>
@@ -6945,10 +6973,10 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="20">
-        <v>0.247003</v>
+        <v>0.54035100000000003</v>
       </c>
       <c r="BK5" s="20">
-        <v>3.3336589999999999</v>
+        <v>2.7194210000000001</v>
       </c>
     </row>
     <row r="6" spans="2:63" x14ac:dyDescent="0.25">
@@ -6963,10 +6991,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="20">
-        <v>0.33308599999999999</v>
+        <v>0.49675000000000002</v>
       </c>
       <c r="K6" s="20">
-        <v>0.17547199999999999</v>
+        <v>8.9969999999999994E-2</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>3</v>
@@ -6979,10 +7007,10 @@
         <v>2</v>
       </c>
       <c r="W6" s="20">
-        <v>0.46281899999999998</v>
+        <v>0.74077599999999999</v>
       </c>
       <c r="X6" s="20">
-        <v>0.60648400000000002</v>
+        <v>0.54430199999999995</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>3</v>
@@ -6995,10 +7023,10 @@
         <v>2</v>
       </c>
       <c r="AJ6" s="20">
-        <v>0.52823900000000001</v>
+        <v>0.83213400000000004</v>
       </c>
       <c r="AK6" s="20">
-        <v>1.2870870000000001</v>
+        <v>1.1324449999999999</v>
       </c>
       <c r="AO6" s="7" t="s">
         <v>3</v>
@@ -7011,10 +7039,10 @@
         <v>2</v>
       </c>
       <c r="AW6" s="20">
-        <v>0.54780099999999998</v>
+        <v>0.86550700000000003</v>
       </c>
       <c r="AX6" s="20">
-        <v>2.0135700000000001</v>
+        <v>1.835982</v>
       </c>
       <c r="BB6" s="7" t="s">
         <v>3</v>
@@ -7027,10 +7055,10 @@
         <v>2</v>
       </c>
       <c r="BJ6" s="20">
-        <v>0.54035100000000003</v>
+        <v>0.89481900000000003</v>
       </c>
       <c r="BK6" s="20">
-        <v>2.7194210000000001</v>
+        <v>2.6169210000000001</v>
       </c>
     </row>
     <row r="7" spans="2:63" x14ac:dyDescent="0.25">
@@ -7045,10 +7073,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="20">
-        <v>0.49675000000000002</v>
+        <v>0.644594</v>
       </c>
       <c r="K7" s="20">
-        <v>8.9969999999999994E-2</v>
+        <v>6.7970000000000003E-2</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>4</v>
@@ -7061,10 +7089,10 @@
         <v>3</v>
       </c>
       <c r="W7" s="20">
-        <v>0.74077599999999999</v>
+        <v>1.0550930000000001</v>
       </c>
       <c r="X7" s="20">
-        <v>0.54430199999999995</v>
+        <v>0.48702000000000001</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>4</v>
@@ -7077,10 +7105,10 @@
         <v>3</v>
       </c>
       <c r="AJ7" s="20">
-        <v>0.83213400000000004</v>
+        <v>1.215368</v>
       </c>
       <c r="AK7" s="20">
-        <v>1.1324449999999999</v>
+        <v>1.157437</v>
       </c>
       <c r="AO7" s="7" t="s">
         <v>4</v>
@@ -7093,10 +7121,10 @@
         <v>3</v>
       </c>
       <c r="AW7" s="20">
-        <v>0.86550700000000003</v>
+        <v>1.2253940000000001</v>
       </c>
       <c r="AX7" s="20">
-        <v>1.835982</v>
+        <v>1.7769680000000001</v>
       </c>
       <c r="BB7" s="7" t="s">
         <v>4</v>
@@ -7109,10 +7137,10 @@
         <v>3</v>
       </c>
       <c r="BJ7" s="20">
-        <v>0.89481900000000003</v>
+        <v>1.2366360000000001</v>
       </c>
       <c r="BK7" s="20">
-        <v>2.6169210000000001</v>
+        <v>2.488591</v>
       </c>
     </row>
     <row r="8" spans="2:63" x14ac:dyDescent="0.25">
@@ -7127,10 +7155,10 @@
         <v>4</v>
       </c>
       <c r="J8" s="20">
-        <v>0.644594</v>
+        <v>0.68963399999999997</v>
       </c>
       <c r="K8" s="20">
-        <v>6.7970000000000003E-2</v>
+        <v>5.0962E-2</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>102</v>
@@ -7143,10 +7171,10 @@
         <v>4</v>
       </c>
       <c r="W8" s="20">
-        <v>1.0550930000000001</v>
+        <v>1.3517079999999999</v>
       </c>
       <c r="X8" s="20">
-        <v>0.48702000000000001</v>
+        <v>0.45880700000000002</v>
       </c>
       <c r="AB8" s="7" t="s">
         <v>102</v>
@@ -7159,10 +7187,10 @@
         <v>4</v>
       </c>
       <c r="AJ8" s="20">
-        <v>1.215368</v>
+        <v>1.579167</v>
       </c>
       <c r="AK8" s="20">
-        <v>1.157437</v>
+        <v>1.1203320000000001</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>102</v>
@@ -7175,10 +7203,10 @@
         <v>4</v>
       </c>
       <c r="AW8" s="20">
-        <v>1.2253940000000001</v>
+        <v>1.662374</v>
       </c>
       <c r="AX8" s="20">
-        <v>1.7769680000000001</v>
+        <v>1.8843049999999999</v>
       </c>
       <c r="BB8" s="7" t="s">
         <v>102</v>
@@ -7191,10 +7219,10 @@
         <v>4</v>
       </c>
       <c r="BJ8" s="20">
-        <v>1.2366360000000001</v>
+        <v>1.6426460000000001</v>
       </c>
       <c r="BK8" s="20">
-        <v>2.488591</v>
+        <v>2.5282079999999998</v>
       </c>
     </row>
     <row r="9" spans="2:63" x14ac:dyDescent="0.25">
@@ -7209,10 +7237,10 @@
         <v>5</v>
       </c>
       <c r="J9" s="20">
-        <v>0.68963399999999997</v>
+        <v>0.90133099999999999</v>
       </c>
       <c r="K9" s="20">
-        <v>5.0962E-2</v>
+        <v>4.2111000000000003E-2</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>5</v>
@@ -7225,10 +7253,10 @@
         <v>5</v>
       </c>
       <c r="W9" s="20">
-        <v>1.3517079999999999</v>
+        <v>1.7131989999999999</v>
       </c>
       <c r="X9" s="20">
-        <v>0.45880700000000002</v>
+        <v>0.46263900000000002</v>
       </c>
       <c r="AB9" s="7" t="s">
         <v>5</v>
@@ -7241,10 +7269,10 @@
         <v>5</v>
       </c>
       <c r="AJ9" s="20">
-        <v>1.579167</v>
+        <v>1.9261950000000001</v>
       </c>
       <c r="AK9" s="20">
-        <v>1.1203320000000001</v>
+        <v>1.080206</v>
       </c>
       <c r="AO9" s="7" t="s">
         <v>5</v>
@@ -7257,10 +7285,10 @@
         <v>5</v>
       </c>
       <c r="AW9" s="20">
-        <v>1.662374</v>
+        <v>1.980566</v>
       </c>
       <c r="AX9" s="20">
-        <v>1.8843049999999999</v>
+        <v>1.7679819999999999</v>
       </c>
       <c r="BB9" s="7" t="s">
         <v>5</v>
@@ -7273,10 +7301,10 @@
         <v>5</v>
       </c>
       <c r="BJ9" s="20">
-        <v>1.6426460000000001</v>
+        <v>1.998246</v>
       </c>
       <c r="BK9" s="20">
-        <v>2.5282079999999998</v>
+        <v>2.4828700000000001</v>
       </c>
     </row>
     <row r="10" spans="2:63" x14ac:dyDescent="0.25">
@@ -7293,10 +7321,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="20">
-        <v>0.90133099999999999</v>
+        <v>1.068287</v>
       </c>
       <c r="K10" s="20">
-        <v>4.2111000000000003E-2</v>
+        <v>3.7911E-2</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>7</v>
@@ -7311,10 +7339,10 @@
         <v>6</v>
       </c>
       <c r="W10" s="20">
-        <v>1.7131989999999999</v>
+        <v>1.9839830000000001</v>
       </c>
       <c r="X10" s="20">
-        <v>0.46263900000000002</v>
+        <v>0.43206600000000001</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>7</v>
@@ -7329,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="AJ10" s="20">
-        <v>1.9261950000000001</v>
+        <v>2.3165939999999998</v>
       </c>
       <c r="AK10" s="20">
-        <v>1.080206</v>
+        <v>1.088902</v>
       </c>
       <c r="AO10" s="7" t="s">
         <v>7</v>
@@ -7347,10 +7375,10 @@
         <v>6</v>
       </c>
       <c r="AW10" s="20">
-        <v>1.980566</v>
+        <v>2.380125</v>
       </c>
       <c r="AX10" s="20">
-        <v>1.7679819999999999</v>
+        <v>1.804824</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>7</v>
@@ -7365,10 +7393,10 @@
         <v>6</v>
       </c>
       <c r="BJ10" s="20">
-        <v>1.998246</v>
+        <v>2.395597</v>
       </c>
       <c r="BK10" s="20">
-        <v>2.4828700000000001</v>
+        <v>2.5131429999999999</v>
       </c>
     </row>
     <row r="11" spans="2:63" x14ac:dyDescent="0.25">
@@ -7385,10 +7413,10 @@
         <v>7</v>
       </c>
       <c r="J11" s="20">
-        <v>1.068287</v>
+        <v>1.0863309999999999</v>
       </c>
       <c r="K11" s="20">
-        <v>3.7911E-2</v>
+        <v>1.9018E-2</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>10</v>
@@ -7403,10 +7431,10 @@
         <v>7</v>
       </c>
       <c r="W11" s="20">
-        <v>1.9839830000000001</v>
+        <v>2.4378890000000002</v>
       </c>
       <c r="X11" s="20">
-        <v>0.43206600000000001</v>
+        <v>0.44443899999999997</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>10</v>
@@ -7421,10 +7449,10 @@
         <v>7</v>
       </c>
       <c r="AJ11" s="20">
-        <v>2.3165939999999998</v>
+        <v>2.6767409999999998</v>
       </c>
       <c r="AK11" s="20">
-        <v>1.088902</v>
+        <v>1.068754</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>10</v>
@@ -7439,10 +7467,10 @@
         <v>7</v>
       </c>
       <c r="AW11" s="20">
-        <v>2.380125</v>
+        <v>2.7602959999999999</v>
       </c>
       <c r="AX11" s="20">
-        <v>1.804824</v>
+        <v>1.784446</v>
       </c>
       <c r="BB11" s="7" t="s">
         <v>10</v>
@@ -7457,7 +7485,7 @@
         <v>7</v>
       </c>
       <c r="BJ11" s="20">
-        <v>2.395597</v>
+        <v>2.784646</v>
       </c>
       <c r="BK11" s="20">
         <v>2.5131429999999999</v>
@@ -7477,10 +7505,10 @@
         <v>8</v>
       </c>
       <c r="J12" s="20">
-        <v>1.0863309999999999</v>
+        <v>1.143057</v>
       </c>
       <c r="K12" s="20">
-        <v>1.9018E-2</v>
+        <v>1.2630000000000001E-2</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>9</v>
@@ -7495,10 +7523,10 @@
         <v>8</v>
       </c>
       <c r="W12" s="20">
-        <v>2.4378890000000002</v>
+        <v>2.8665060000000002</v>
       </c>
       <c r="X12" s="20">
-        <v>0.44443899999999997</v>
+        <v>0.46662500000000001</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>9</v>
@@ -7513,10 +7541,10 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="20">
-        <v>2.6767409999999998</v>
+        <v>3.075034</v>
       </c>
       <c r="AK12" s="20">
-        <v>1.068754</v>
+        <v>1.083124</v>
       </c>
       <c r="AO12" s="7" t="s">
         <v>9</v>
@@ -7531,10 +7559,10 @@
         <v>8</v>
       </c>
       <c r="AW12" s="20">
-        <v>2.7602959999999999</v>
+        <v>3.1483500000000002</v>
       </c>
       <c r="AX12" s="20">
-        <v>1.784446</v>
+        <v>1.769523</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>9</v>
@@ -7549,7 +7577,7 @@
         <v>8</v>
       </c>
       <c r="BJ12" s="20">
-        <v>2.784646</v>
+        <v>3.1733250000000002</v>
       </c>
       <c r="BK12" s="20">
         <v>2.5131429999999999</v>
@@ -7567,10 +7595,10 @@
         <v>9</v>
       </c>
       <c r="J13" s="20">
-        <v>1.143057</v>
+        <v>1.342838</v>
       </c>
       <c r="K13" s="20">
-        <v>1.2630000000000001E-2</v>
+        <v>2.8396999999999999E-2</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>8</v>
@@ -7583,10 +7611,10 @@
         <v>9</v>
       </c>
       <c r="W13" s="20">
-        <v>2.8665060000000002</v>
+        <v>3.1824089999999998</v>
       </c>
       <c r="X13" s="20">
-        <v>0.46662500000000001</v>
+        <v>0.42926799999999998</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>8</v>
@@ -7599,7 +7627,7 @@
         <v>9</v>
       </c>
       <c r="AJ13" s="20">
-        <v>3.075034</v>
+        <v>3.4637020000000001</v>
       </c>
       <c r="AK13" s="20">
         <v>1.083124</v>
@@ -7615,10 +7643,10 @@
         <v>9</v>
       </c>
       <c r="AW13" s="20">
-        <v>3.1483500000000002</v>
+        <v>3.530621</v>
       </c>
       <c r="AX13" s="20">
-        <v>1.769523</v>
+        <v>1.7920529999999999</v>
       </c>
       <c r="BB13" s="7" t="s">
         <v>8</v>
@@ -7631,7 +7659,7 @@
         <v>9</v>
       </c>
       <c r="BJ13" s="20">
-        <v>3.1733250000000002</v>
+        <v>3.5619930000000002</v>
       </c>
       <c r="BK13" s="20">
         <v>2.5131429999999999</v>
@@ -7652,11 +7680,11 @@
       <c r="I14" s="7">
         <v>10</v>
       </c>
-      <c r="J14" s="20">
-        <v>1.342838</v>
+      <c r="J14" s="16">
+        <v>1.2945599999999999</v>
       </c>
       <c r="K14" s="20">
-        <v>2.8396999999999999E-2</v>
+        <v>1.5048000000000001E-2</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>15</v>
@@ -7673,10 +7701,10 @@
         <v>10</v>
       </c>
       <c r="W14" s="20">
-        <v>3.1824089999999998</v>
+        <v>3.5697909999999999</v>
       </c>
       <c r="X14" s="20">
-        <v>0.42926799999999998</v>
+        <v>0.43523400000000001</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>15</v>
@@ -7692,8 +7720,8 @@
       <c r="AI14" s="7">
         <v>10</v>
       </c>
-      <c r="AJ14" s="20">
-        <v>3.4637020000000001</v>
+      <c r="AJ14" s="16">
+        <v>3.8523520000000002</v>
       </c>
       <c r="AK14" s="20">
         <v>1.083124</v>
@@ -7712,11 +7740,11 @@
       <c r="AV14" s="7">
         <v>10</v>
       </c>
-      <c r="AW14" s="20">
-        <v>3.530621</v>
-      </c>
-      <c r="AX14" s="20">
-        <v>1.7920529999999999</v>
+      <c r="AW14" s="29">
+        <v>3.923314</v>
+      </c>
+      <c r="AX14" s="29">
+        <v>1.788481</v>
       </c>
       <c r="BB14" s="1" t="s">
         <v>15</v>
@@ -7732,8 +7760,8 @@
       <c r="BI14" s="7">
         <v>10</v>
       </c>
-      <c r="BJ14" s="20">
-        <v>3.5619930000000002</v>
+      <c r="BJ14" s="16">
+        <v>3.9511240000000001</v>
       </c>
       <c r="BK14" s="20">
         <v>2.5131429999999999</v>
@@ -8387,76 +8415,76 @@
         <v>13</v>
       </c>
       <c r="C30" s="16">
-        <v>0.18163000000000001</v>
+        <v>0.33308599999999999</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F30" s="13">
-        <v>0.15160000000000001</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P30" s="16">
-        <v>0.21105099999999999</v>
+        <v>0.46281899999999998</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S30" s="13">
-        <v>0.10299999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="AB30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC30" s="18">
-        <v>0.23182900000000001</v>
+      <c r="AC30" s="16">
+        <v>0.52823900000000001</v>
       </c>
       <c r="AD30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE30" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF30" s="13">
-        <v>7.6399999999999996E-2</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="AO30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AP30" s="18">
-        <v>0.241984</v>
+      <c r="AP30" s="16">
+        <v>0.54780099999999998</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR30" s="14" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AS30" s="13">
-        <v>7.6399999999999996E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="BB30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BC30" s="18">
-        <v>0.247003</v>
+      <c r="BC30" s="16">
+        <v>0.54035100000000003</v>
       </c>
       <c r="BD30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE30" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BF30" s="13">
-        <v>7.7799999999999994E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="31" spans="2:58" x14ac:dyDescent="0.25">
@@ -8464,66 +8492,66 @@
         <v>14</v>
       </c>
       <c r="C31" s="17">
-        <v>0.29925400000000002</v>
+        <v>0.17547199999999999</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F31" s="13">
-        <v>0.21249999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P31" s="17">
-        <v>0.80614799999999998</v>
+        <v>0.60648400000000002</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S31" s="13">
-        <v>0.10390000000000001</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="AB31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AC31" s="16">
-        <v>1.564179</v>
+      <c r="AC31" s="17">
+        <v>1.2870870000000001</v>
       </c>
       <c r="AD31" s="6"/>
       <c r="AE31" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF31" s="13">
-        <v>0.1198</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="AO31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AP31" s="16">
-        <v>2.4325290000000002</v>
+      <c r="AP31" s="17">
+        <v>2.0135700000000001</v>
       </c>
       <c r="AQ31" s="6"/>
       <c r="AR31" s="14" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AS31" s="13">
-        <v>0.1198</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="BB31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BC31" s="16">
-        <v>3.3336589999999999</v>
+      <c r="BC31" s="17">
+        <v>2.7194210000000001</v>
       </c>
       <c r="BD31" s="6"/>
       <c r="BE31" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BF31" s="13">
-        <v>4.4299999999999999E-2</v>
+        <v>4.8800000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="2:58" x14ac:dyDescent="0.25">
@@ -9015,76 +9043,76 @@
         <v>13</v>
       </c>
       <c r="C45" s="16">
-        <v>0.33308599999999999</v>
+        <v>0.49675000000000002</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F45" s="13">
-        <v>0.35360000000000003</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P45" s="16">
-        <v>0.46281899999999998</v>
+        <v>0.74077599999999999</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S45" s="13">
-        <v>0.11</v>
+        <v>0.2122</v>
       </c>
       <c r="AB45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC45" s="16">
-        <v>0.52823900000000001</v>
+        <v>0.83213400000000004</v>
       </c>
       <c r="AD45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE45" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF45" s="13">
-        <v>6.6199999999999995E-2</v>
+        <v>0.158</v>
       </c>
       <c r="AO45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP45" s="16">
-        <v>0.54780099999999998</v>
+        <v>0.86550700000000003</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR45" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AS45" s="13">
-        <v>5.1400000000000001E-2</v>
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="BB45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC45" s="16">
-        <v>0.54035100000000003</v>
+        <v>0.89481900000000003</v>
       </c>
       <c r="BD45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE45" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BF45" s="13">
-        <v>6.2399999999999997E-2</v>
+        <v>8.2100000000000006E-2</v>
       </c>
     </row>
     <row r="46" spans="2:58" x14ac:dyDescent="0.25">
@@ -9092,66 +9120,66 @@
         <v>14</v>
       </c>
       <c r="C46" s="17">
-        <v>0.17547199999999999</v>
+        <v>8.9969999999999994E-2</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F46" s="13">
-        <v>0.58699999999999997</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P46" s="17">
-        <v>0.60648400000000002</v>
+        <v>0.54430199999999995</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S46" s="13">
-        <v>0.11749999999999999</v>
+        <v>0.3241</v>
       </c>
       <c r="AB46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC46" s="17">
-        <v>1.2870870000000001</v>
+        <v>1.1324449999999999</v>
       </c>
       <c r="AD46" s="6"/>
       <c r="AE46" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF46" s="13">
-        <v>0.12379999999999999</v>
+        <v>0.2046</v>
       </c>
       <c r="AO46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AP46" s="17">
-        <v>2.0135700000000001</v>
+        <v>1.835982</v>
       </c>
       <c r="AQ46" s="6"/>
       <c r="AR46" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AS46" s="13">
-        <v>7.0900000000000005E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="BB46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="BC46" s="17">
-        <v>2.7194210000000001</v>
+        <v>2.6169210000000001</v>
       </c>
       <c r="BD46" s="6"/>
       <c r="BE46" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BF46" s="13">
-        <v>4.8800000000000003E-2</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.25">
@@ -9643,76 +9671,76 @@
         <v>13</v>
       </c>
       <c r="C60" s="16">
-        <v>0.49675000000000002</v>
+        <v>0.644594</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F60" s="13">
-        <v>0.30909999999999999</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P60" s="16">
-        <v>0.74077599999999999</v>
+        <v>1.0550930000000001</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R60" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S60" s="13">
-        <v>0.2122</v>
+        <v>0.1079</v>
       </c>
       <c r="AB60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC60" s="16">
-        <v>0.83213400000000004</v>
+        <v>1.215368</v>
       </c>
       <c r="AD60" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE60" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF60" s="13">
-        <v>0.158</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="AO60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP60" s="16">
-        <v>0.86550700000000003</v>
+        <v>1.2253940000000001</v>
       </c>
       <c r="AQ60" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR60" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS60" s="13">
-        <v>8.8300000000000003E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="BB60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC60" s="16">
-        <v>0.89481900000000003</v>
+        <v>1.2366360000000001</v>
       </c>
       <c r="BD60" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE60" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BF60" s="13">
-        <v>8.2100000000000006E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="61" spans="2:58" x14ac:dyDescent="0.25">
@@ -9720,66 +9748,66 @@
         <v>14</v>
       </c>
       <c r="C61" s="17">
-        <v>8.9969999999999994E-2</v>
+        <v>6.7970000000000003E-2</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F61" s="13">
-        <v>0.60399999999999998</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P61" s="17">
-        <v>0.54430199999999995</v>
+        <v>0.48702000000000001</v>
       </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S61" s="13">
-        <v>0.3241</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="AB61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC61" s="17">
-        <v>1.1324449999999999</v>
+        <v>1.157437</v>
       </c>
       <c r="AD61" s="6"/>
       <c r="AE61" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AF61" s="13">
-        <v>0.2046</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="AO61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AP61" s="17">
-        <v>1.835982</v>
+        <v>1.7769680000000001</v>
       </c>
       <c r="AQ61" s="6"/>
       <c r="AR61" s="14" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AS61" s="13">
-        <v>6.5799999999999997E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="BB61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="BC61" s="17">
-        <v>2.6169210000000001</v>
+        <v>2.488591</v>
       </c>
       <c r="BD61" s="6"/>
       <c r="BE61" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BF61" s="13">
-        <v>0.1031</v>
+        <v>6.13E-2</v>
       </c>
     </row>
     <row r="63" spans="2:58" x14ac:dyDescent="0.25">
@@ -10271,76 +10299,76 @@
         <v>13</v>
       </c>
       <c r="C75" s="16">
-        <v>0.644594</v>
+        <v>0.68963399999999997</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F75" s="13">
-        <v>0.18779999999999999</v>
+        <v>0.25209999999999999</v>
       </c>
       <c r="O75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P75" s="16">
-        <v>1.0550930000000001</v>
+        <v>1.3517079999999999</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R75" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S75" s="13">
-        <v>0.1079</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="AB75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC75" s="16">
-        <v>1.215368</v>
+        <v>1.579167</v>
       </c>
       <c r="AD75" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE75" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF75" s="13">
-        <v>9.9699999999999997E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="AO75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP75" s="16">
-        <v>1.2253940000000001</v>
+        <v>1.662374</v>
       </c>
       <c r="AQ75" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR75" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS75" s="13">
-        <v>7.9500000000000001E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="BB75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC75" s="16">
-        <v>1.2366360000000001</v>
+        <v>1.6426460000000001</v>
       </c>
       <c r="BD75" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE75" s="14" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="BF75" s="13">
-        <v>6.4500000000000002E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="2:58" x14ac:dyDescent="0.25">
@@ -10348,66 +10376,66 @@
         <v>14</v>
       </c>
       <c r="C76" s="17">
-        <v>6.7970000000000003E-2</v>
+        <v>5.0962E-2</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F76" s="13">
-        <v>0.15429999999999999</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="O76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P76" s="17">
-        <v>0.48702000000000001</v>
+        <v>0.45880700000000002</v>
       </c>
       <c r="Q76" s="6"/>
       <c r="R76" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S76" s="13">
-        <v>0.19639999999999999</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="AB76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC76" s="17">
-        <v>1.157437</v>
+        <v>1.1203320000000001</v>
       </c>
       <c r="AD76" s="6"/>
       <c r="AE76" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF76" s="13">
-        <v>0.15629999999999999</v>
+        <v>0.1111</v>
       </c>
       <c r="AO76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AP76" s="17">
-        <v>1.7769680000000001</v>
+        <v>1.8843049999999999</v>
       </c>
       <c r="AQ76" s="6"/>
       <c r="AR76" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AS76" s="13">
-        <v>0.11799999999999999</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="BB76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="BC76" s="17">
-        <v>2.488591</v>
+        <v>2.5282079999999998</v>
       </c>
       <c r="BD76" s="6"/>
       <c r="BE76" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BF76" s="13">
-        <v>6.13E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="2:58" x14ac:dyDescent="0.25">
@@ -10899,76 +10927,76 @@
         <v>13</v>
       </c>
       <c r="C90" s="16">
-        <v>0.68963399999999997</v>
+        <v>0.90133099999999999</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F90" s="13">
-        <v>0.25209999999999999</v>
+        <v>0.1416</v>
       </c>
       <c r="O90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P90" s="16">
-        <v>1.3517079999999999</v>
+        <v>1.7131989999999999</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R90" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S90" s="13">
-        <v>3.7400000000000003E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="AB90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC90" s="16">
-        <v>1.579167</v>
+        <v>1.9261950000000001</v>
       </c>
       <c r="AD90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE90" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF90" s="13">
-        <v>2.76E-2</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="AO90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP90" s="16">
-        <v>1.662374</v>
+        <v>1.980566</v>
       </c>
       <c r="AQ90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR90" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AS90" s="13">
-        <v>6.08E-2</v>
+        <v>0.1037</v>
       </c>
       <c r="BB90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC90" s="16">
-        <v>1.6426460000000001</v>
+        <v>1.998246</v>
       </c>
       <c r="BD90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE90" s="14" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="BF90" s="13">
-        <v>4.3400000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="91" spans="2:58" x14ac:dyDescent="0.25">
@@ -10976,66 +11004,66 @@
         <v>14</v>
       </c>
       <c r="C91" s="17">
-        <v>5.0962E-2</v>
+        <v>4.2111000000000003E-2</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F91" s="13">
-        <v>0.72540000000000004</v>
+        <v>0.62939999999999996</v>
       </c>
       <c r="O91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P91" s="17">
-        <v>0.45880700000000002</v>
+        <v>0.46263900000000002</v>
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S91" s="13">
-        <v>6.2199999999999998E-2</v>
+        <v>0.1484</v>
       </c>
       <c r="AB91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC91" s="17">
-        <v>1.1203320000000001</v>
+        <v>1.080206</v>
       </c>
       <c r="AD91" s="6"/>
       <c r="AE91" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF91" s="13">
-        <v>0.1111</v>
+        <v>0.1164</v>
       </c>
       <c r="AO91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AP91" s="17">
-        <v>1.8843049999999999</v>
+        <v>1.7679819999999999</v>
       </c>
       <c r="AQ91" s="6"/>
       <c r="AR91" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AS91" s="13">
-        <v>4.8500000000000001E-2</v>
+        <v>0.1099</v>
       </c>
       <c r="BB91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="BC91" s="17">
-        <v>2.5282079999999998</v>
+        <v>2.4828700000000001</v>
       </c>
       <c r="BD91" s="6"/>
       <c r="BE91" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BF91" s="13">
-        <v>4.1000000000000002E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="2:58" x14ac:dyDescent="0.25">
@@ -11070,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" s="11"/>
       <c r="O94" s="7" t="s">
@@ -11527,76 +11555,76 @@
         <v>13</v>
       </c>
       <c r="C105" s="16">
-        <v>0.90133099999999999</v>
+        <v>1.068287</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F105" s="13">
-        <v>0.1416</v>
+        <v>0.26569999999999999</v>
       </c>
       <c r="O105" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P105" s="16">
-        <v>1.7131989999999999</v>
+        <v>1.9839830000000001</v>
       </c>
       <c r="Q105" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R105" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S105" s="13">
-        <v>9.7500000000000003E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="AB105" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC105" s="16">
-        <v>1.9261950000000001</v>
+        <v>2.3165939999999998</v>
       </c>
       <c r="AD105" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE105" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF105" s="13">
-        <v>8.8499999999999995E-2</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="AO105" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP105" s="16">
-        <v>1.980566</v>
+        <v>2.380125</v>
       </c>
       <c r="AQ105" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR105" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AS105" s="13">
-        <v>0.1037</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="BB105" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC105" s="16">
-        <v>1.998246</v>
+        <v>2.395597</v>
       </c>
       <c r="BD105" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE105" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BF105" s="13">
-        <v>5.1999999999999998E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="2:58" x14ac:dyDescent="0.25">
@@ -11604,66 +11632,66 @@
         <v>14</v>
       </c>
       <c r="C106" s="17">
-        <v>4.2111000000000003E-2</v>
+        <v>3.7911E-2</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F106" s="13">
-        <v>0.62939999999999996</v>
+        <v>1.0483</v>
       </c>
       <c r="O106" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P106" s="17">
-        <v>0.46263900000000002</v>
+        <v>0.43206600000000001</v>
       </c>
       <c r="Q106" s="6"/>
       <c r="R106" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S106" s="13">
-        <v>0.1484</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="AB106" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC106" s="17">
-        <v>1.080206</v>
+        <v>1.088902</v>
       </c>
       <c r="AD106" s="6"/>
       <c r="AE106" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF106" s="13">
-        <v>0.1164</v>
+        <v>0.1084</v>
       </c>
       <c r="AO106" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AP106" s="17">
-        <v>1.7679819999999999</v>
+        <v>1.804824</v>
       </c>
       <c r="AQ106" s="6"/>
       <c r="AR106" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AS106" s="13">
-        <v>0.1099</v>
+        <v>0.1171</v>
       </c>
       <c r="BB106" s="5" t="s">
         <v>14</v>
       </c>
       <c r="BC106" s="17">
-        <v>2.4828700000000001</v>
+        <v>2.5131429999999999</v>
       </c>
       <c r="BD106" s="6"/>
       <c r="BE106" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF106" s="13">
-        <v>4.9500000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
     </row>
     <row r="108" spans="2:58" x14ac:dyDescent="0.25">
@@ -12155,76 +12183,76 @@
         <v>13</v>
       </c>
       <c r="C120" s="16">
-        <v>1.068287</v>
+        <v>1.0863309999999999</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F120" s="13">
-        <v>0.26569999999999999</v>
+        <v>0.40379999999999999</v>
       </c>
       <c r="O120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P120" s="16">
-        <v>1.9839830000000001</v>
+        <v>2.4378890000000002</v>
       </c>
       <c r="Q120" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R120" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S120" s="13">
-        <v>7.3899999999999993E-2</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="AB120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC120" s="16">
-        <v>2.3165939999999998</v>
+        <v>2.6767409999999998</v>
       </c>
       <c r="AD120" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE120" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AF120" s="13">
-        <v>8.2699999999999996E-2</v>
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="AO120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP120" s="16">
-        <v>2.380125</v>
+        <v>2.7602959999999999</v>
       </c>
       <c r="AQ120" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR120" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AS120" s="13">
-        <v>7.0900000000000005E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="BB120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC120" s="16">
-        <v>2.395597</v>
+        <v>2.784646</v>
       </c>
       <c r="BD120" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE120" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BF120" s="13">
-        <v>4.0500000000000001E-2</v>
+        <v>4.07E-2</v>
       </c>
     </row>
     <row r="121" spans="2:58" x14ac:dyDescent="0.25">
@@ -12232,53 +12260,53 @@
         <v>14</v>
       </c>
       <c r="C121" s="17">
-        <v>3.7911E-2</v>
+        <v>1.9018E-2</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F121" s="13">
-        <v>1.0483</v>
+        <v>1.1727000000000001</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P121" s="17">
-        <v>0.43206600000000001</v>
+        <v>0.44443899999999997</v>
       </c>
       <c r="Q121" s="6"/>
       <c r="R121" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S121" s="13">
-        <v>5.5800000000000002E-2</v>
+        <v>0.1303</v>
       </c>
       <c r="AB121" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC121" s="17">
-        <v>1.088902</v>
+        <v>1.068754</v>
       </c>
       <c r="AD121" s="6"/>
       <c r="AE121" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF121" s="13">
-        <v>0.1084</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="AO121" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AP121" s="17">
-        <v>1.804824</v>
+        <v>1.784446</v>
       </c>
       <c r="AQ121" s="6"/>
       <c r="AR121" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS121" s="13">
-        <v>0.1171</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="BB121" s="5" t="s">
         <v>14</v>
@@ -12783,76 +12811,76 @@
         <v>13</v>
       </c>
       <c r="C135" s="16">
-        <v>1.0863309999999999</v>
+        <v>1.143057</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F135" s="13">
-        <v>0.40379999999999999</v>
+        <v>0.41649999999999998</v>
       </c>
       <c r="O135" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P135" s="16">
-        <v>2.4378890000000002</v>
+        <v>2.8665060000000002</v>
       </c>
       <c r="Q135" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R135" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S135" s="13">
-        <v>7.4800000000000005E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="AB135" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC135" s="16">
-        <v>2.6767409999999998</v>
+        <v>3.075034</v>
       </c>
       <c r="AD135" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE135" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AF135" s="13">
-        <v>5.9799999999999999E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="AO135" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP135" s="16">
-        <v>2.7602959999999999</v>
+        <v>3.1483500000000002</v>
       </c>
       <c r="AQ135" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR135" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS135" s="13">
-        <v>7.4399999999999994E-2</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="BB135" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC135" s="16">
-        <v>2.784646</v>
+        <v>3.1733250000000002</v>
       </c>
       <c r="BD135" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE135" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BF135" s="13">
-        <v>4.07E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
     </row>
     <row r="136" spans="2:58" x14ac:dyDescent="0.25">
@@ -12860,53 +12888,53 @@
         <v>14</v>
       </c>
       <c r="C136" s="17">
-        <v>1.9018E-2</v>
+        <v>1.2630000000000001E-2</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F136" s="13">
-        <v>1.1727000000000001</v>
+        <v>1.2466999999999999</v>
       </c>
       <c r="O136" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P136" s="17">
-        <v>0.44443899999999997</v>
+        <v>0.46662500000000001</v>
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S136" s="13">
-        <v>0.1303</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="AB136" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC136" s="17">
-        <v>1.068754</v>
+        <v>1.083124</v>
       </c>
       <c r="AD136" s="6"/>
       <c r="AE136" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF136" s="13">
-        <v>8.0199999999999994E-2</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="AO136" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AP136" s="17">
-        <v>1.784446</v>
+        <v>1.769523</v>
       </c>
       <c r="AQ136" s="6"/>
       <c r="AR136" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AS136" s="13">
-        <v>6.6100000000000006E-2</v>
+        <v>0.1203</v>
       </c>
       <c r="BB136" s="5" t="s">
         <v>14</v>
@@ -12916,7 +12944,7 @@
       </c>
       <c r="BD136" s="6"/>
       <c r="BE136" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BF136" s="13">
         <v>5.04E-2</v>
@@ -13411,76 +13439,76 @@
         <v>13</v>
       </c>
       <c r="C150" s="16">
-        <v>1.143057</v>
+        <v>1.342838</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F150" s="13">
-        <v>0.41649999999999998</v>
+        <v>0.4148</v>
       </c>
       <c r="O150" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P150" s="16">
-        <v>2.8665060000000002</v>
+        <v>3.1824089999999998</v>
       </c>
       <c r="Q150" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R150" s="14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="S150" s="13">
-        <v>5.4699999999999999E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="AB150" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC150" s="16">
-        <v>3.075034</v>
+        <v>3.4637020000000001</v>
       </c>
       <c r="AD150" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE150" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF150" s="13">
-        <v>5.16E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="AO150" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AP150" s="16">
-        <v>3.1483500000000002</v>
+        <v>3.530621</v>
       </c>
       <c r="AQ150" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AR150" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AS150" s="13">
-        <v>5.1700000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="BB150" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BC150" s="16">
-        <v>3.1733250000000002</v>
+        <v>3.5619930000000002</v>
       </c>
       <c r="BD150" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BE150" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BF150" s="13">
-        <v>4.0899999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="151" spans="2:58" x14ac:dyDescent="0.25">
@@ -13488,27 +13516,27 @@
         <v>14</v>
       </c>
       <c r="C151" s="17">
-        <v>1.2630000000000001E-2</v>
+        <v>2.8396999999999999E-2</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F151" s="13">
-        <v>1.2466999999999999</v>
+        <v>1.3125</v>
       </c>
       <c r="O151" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P151" s="17">
-        <v>0.46662500000000001</v>
+        <v>0.42926799999999998</v>
       </c>
       <c r="Q151" s="6"/>
       <c r="R151" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S151" s="13">
-        <v>7.4099999999999999E-2</v>
+        <v>0.1986</v>
       </c>
       <c r="AB151" s="5" t="s">
         <v>14</v>
@@ -13518,7 +13546,7 @@
       </c>
       <c r="AD151" s="6"/>
       <c r="AE151" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF151" s="13">
         <v>8.1299999999999997E-2</v>
@@ -13527,14 +13555,14 @@
         <v>14</v>
       </c>
       <c r="AP151" s="17">
-        <v>1.769523</v>
+        <v>1.7920529999999999</v>
       </c>
       <c r="AQ151" s="6"/>
       <c r="AR151" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AS151" s="13">
-        <v>0.1203</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="BB151" s="5" t="s">
         <v>14</v>
@@ -13544,7 +13572,7 @@
       </c>
       <c r="BD151" s="6"/>
       <c r="BE151" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BF151" s="13">
         <v>5.04E-2</v>
@@ -13566,16 +13594,6 @@
       </c>
       <c r="AC153" s="8"/>
       <c r="AD153" s="11"/>
-      <c r="AO153" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP153" s="8"/>
-      <c r="AQ153" s="11"/>
-      <c r="BB153" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC153" s="8"/>
-      <c r="BD153" s="11"/>
     </row>
     <row r="154" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
@@ -13600,18 +13618,14 @@
       </c>
       <c r="AD154" s="11"/>
       <c r="AO154" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP154" s="8">
-        <v>10</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AP154" s="8"/>
       <c r="AQ154" s="11"/>
       <c r="BB154" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC154" s="8">
-        <v>10</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="BC154" s="8"/>
       <c r="BD154" s="11"/>
     </row>
     <row r="155" spans="2:58" x14ac:dyDescent="0.25">
@@ -13637,17 +13651,17 @@
       </c>
       <c r="AD155" s="11"/>
       <c r="AO155" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP155" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AP155" s="8">
+        <v>10</v>
       </c>
       <c r="AQ155" s="11"/>
       <c r="BB155" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="BC155" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BC155" s="8">
+        <v>10</v>
       </c>
       <c r="BD155" s="11"/>
     </row>
@@ -13674,17 +13688,17 @@
       </c>
       <c r="AD156" s="11"/>
       <c r="AO156" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP156" s="8">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="AP156" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="AQ156" s="11"/>
       <c r="BB156" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC156" s="8">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="BC156" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="BD156" s="11"/>
     </row>
@@ -13711,17 +13725,17 @@
       </c>
       <c r="AD157" s="11"/>
       <c r="AO157" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP157" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ157" s="11"/>
       <c r="BB157" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC157" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD157" s="11"/>
     </row>
@@ -13748,17 +13762,17 @@
       </c>
       <c r="AD158" s="11"/>
       <c r="AO158" s="7" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="AP158" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ158" s="11"/>
       <c r="BB158" s="7" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="BC158" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD158" s="11"/>
     </row>
@@ -13785,17 +13799,17 @@
       </c>
       <c r="AD159" s="11"/>
       <c r="AO159" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP159" s="12" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="AP159" s="8">
+        <v>4</v>
       </c>
       <c r="AQ159" s="11"/>
       <c r="BB159" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC159" s="8">
         <v>5</v>
-      </c>
-      <c r="BC159" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="BD159" s="11"/>
     </row>
@@ -13828,23 +13842,19 @@
         <v>11</v>
       </c>
       <c r="AO160" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP160" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="AQ160" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AP160" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ160" s="11"/>
       <c r="BB160" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC160" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="BD160" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BC160" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD160" s="11"/>
     </row>
     <row r="161" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
@@ -13875,19 +13885,19 @@
         <v>11</v>
       </c>
       <c r="AO161" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP161" s="10">
-        <v>100000</v>
+        <v>7</v>
+      </c>
+      <c r="AP161" s="9">
+        <v>0.4</v>
       </c>
       <c r="AQ161" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BB161" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC161" s="10">
-        <v>100000</v>
+        <v>7</v>
+      </c>
+      <c r="BC161" s="9">
+        <v>0.4</v>
       </c>
       <c r="BD161" s="11" t="s">
         <v>11</v>
@@ -13922,7 +13932,7 @@
         <v>11</v>
       </c>
       <c r="AO162" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP162" s="10">
         <v>100000</v>
@@ -13931,7 +13941,7 @@
         <v>11</v>
       </c>
       <c r="BB162" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC162" s="10">
         <v>100000</v>
@@ -13963,19 +13973,23 @@
       </c>
       <c r="AD163" s="11"/>
       <c r="AO163" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP163" s="10">
-        <v>5</v>
-      </c>
-      <c r="AQ163" s="11"/>
+        <v>100000</v>
+      </c>
+      <c r="AQ163" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="BB163" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC163" s="10">
-        <v>5</v>
-      </c>
-      <c r="BD163" s="11"/>
+        <v>100000</v>
+      </c>
+      <c r="BD163" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="164" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
@@ -14011,104 +14025,88 @@
       <c r="AF164" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AO164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP164" s="2"/>
-      <c r="AQ164" s="3"/>
-      <c r="AR164" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS164" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC164" s="2"/>
-      <c r="BD164" s="3"/>
-      <c r="BE164" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF164" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="AO164" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP164" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ164" s="11"/>
+      <c r="BB164" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC164" s="10">
+        <v>5</v>
+      </c>
+      <c r="BD164" s="11"/>
     </row>
     <row r="165" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C165" s="16">
-        <v>1.342838</v>
+        <v>1.2945599999999999</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F165" s="13">
-        <v>0.4148</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="O165" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P165" s="16">
-        <v>3.1824089999999998</v>
+        <v>3.5697909999999999</v>
       </c>
       <c r="Q165" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R165" s="14" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="S165" s="13">
-        <v>8.6800000000000002E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="AB165" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AC165" s="16">
-        <v>3.4637020000000001</v>
+        <v>3.8523520000000002</v>
       </c>
       <c r="AD165" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE165" s="14" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="AF165" s="13">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="AO165" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP165" s="16">
-        <v>3.530621</v>
-      </c>
-      <c r="AQ165" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR165" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS165" s="13">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="BB165" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC165" s="16">
-        <v>3.5619930000000002</v>
-      </c>
-      <c r="BD165" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE165" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF165" s="13">
-        <v>4.1000000000000002E-2</v>
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="AO165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP165" s="2"/>
+      <c r="AQ165" s="3"/>
+      <c r="AR165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS165" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC165" s="2"/>
+      <c r="BD165" s="3"/>
+      <c r="BE165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF165" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="2:67" x14ac:dyDescent="0.25">
@@ -14116,27 +14114,27 @@
         <v>14</v>
       </c>
       <c r="C166" s="17">
-        <v>2.8396999999999999E-2</v>
+        <v>1.5048000000000001E-2</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F166" s="13">
-        <v>1.3125</v>
+        <v>1.1547000000000001</v>
       </c>
       <c r="O166" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P166" s="17">
-        <v>0.42926799999999998</v>
+        <v>0.43523400000000001</v>
       </c>
       <c r="Q166" s="6"/>
       <c r="R166" s="14" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="S166" s="13">
-        <v>0.1986</v>
+        <v>0.1487</v>
       </c>
       <c r="AB166" s="5" t="s">
         <v>14</v>
@@ -14146,39 +14144,71 @@
       </c>
       <c r="AD166" s="6"/>
       <c r="AE166" s="14" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="AF166" s="13">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="AO166" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP166" s="17">
-        <v>1.7920529999999999</v>
-      </c>
-      <c r="AQ166" s="6"/>
+      <c r="AO166" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP166" s="16">
+        <v>3.923314</v>
+      </c>
+      <c r="AQ166" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="AR166" s="14" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AS166" s="13">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="BB166" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC166" s="17">
-        <v>2.5131429999999999</v>
-      </c>
-      <c r="BD166" s="6"/>
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="BB166" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC166" s="16">
+        <v>3.9511240000000001</v>
+      </c>
+      <c r="BD166" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="BE166" s="14" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="BF166" s="13">
-        <v>5.04E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="BO166" s="27" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AO167" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP167" s="17">
+        <v>1.788481</v>
+      </c>
+      <c r="AQ167" s="6"/>
+      <c r="AR167" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS167" s="13">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="BB167" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC167" s="17">
+        <v>2.5131429999999999</v>
+      </c>
+      <c r="BD167" s="6"/>
+      <c r="BE167" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF167" s="13">
+        <v>5.04E-2</v>
       </c>
     </row>
     <row r="168" spans="2:67" x14ac:dyDescent="0.25">
@@ -14522,6 +14552,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D347722F4CD19B4AA30A301A73DC8334" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5894521c596a9b3719ececfbfae8352c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="720644d8-bc67-4bc2-98e6-cafdf3eee657" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f72124360cbb87227751a8bdb0d3711" ns3:_="">
     <xsd:import namespace="720644d8-bc67-4bc2-98e6-cafdf3eee657"/>
@@ -14653,15 +14692,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14669,6 +14699,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D146190A-AA33-48E7-AB09-7DB1A1D65D6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76604F8E-78E8-4CDF-91A8-810518AD3C85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14682,14 +14720,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D146190A-AA33-48E7-AB09-7DB1A1D65D6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DatidiTest.xlsx
+++ b/DatidiTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\source\repos\simqueue_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF98A40-4FC4-444F-BF9A-79459148CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29479DC-72E0-4541-978E-6350562D53AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E05CBEE7-E4ED-4D59-9132-7BB50696BE1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="134">
   <si>
     <t>K</t>
   </si>
@@ -432,6 +432,12 @@
   <si>
     <t xml:space="preserve"> +/- 1.61e-01</t>
   </si>
+  <si>
+    <t>Average  Rejection rate</t>
+  </si>
+  <si>
+    <t>Average Rejection rate</t>
+  </si>
 </sst>
 </file>
 
@@ -621,10 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6682,8 +6688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59344396-D438-4015-A0B9-06665B5135F1}">
   <dimension ref="B1:BO182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BM15" sqref="BM15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6730,18 +6736,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="3" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -7740,10 +7746,10 @@
       <c r="AV14" s="7">
         <v>10</v>
       </c>
-      <c r="AW14" s="29">
+      <c r="AW14" s="28">
         <v>3.923314</v>
       </c>
-      <c r="AX14" s="29">
+      <c r="AX14" s="28">
         <v>1.788481</v>
       </c>
       <c r="BB14" s="1" t="s">
@@ -7861,7 +7867,7 @@
     </row>
     <row r="16" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C16" s="17">
         <v>0.29925400000000002</v>
@@ -7874,7 +7880,7 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="P16" s="17">
         <v>0.80614799999999998</v>
@@ -7913,7 +7919,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="BC16" s="16">
         <v>3.3336589999999999</v>
@@ -8489,7 +8495,7 @@
     </row>
     <row r="31" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C31" s="17">
         <v>0.17547199999999999</v>
@@ -8502,7 +8508,7 @@
         <v>0.58699999999999997</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="P31" s="17">
         <v>0.60648400000000002</v>
@@ -8541,7 +8547,7 @@
         <v>7.0900000000000005E-2</v>
       </c>
       <c r="BB31" s="5" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="BC31" s="17">
         <v>2.7194210000000001</v>
@@ -9130,7 +9136,7 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="P46" s="17">
         <v>0.54430199999999995</v>
@@ -9169,7 +9175,7 @@
         <v>6.5799999999999997E-2</v>
       </c>
       <c r="BB46" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="BC46" s="17">
         <v>2.6169210000000001</v>
@@ -9745,7 +9751,7 @@
     </row>
     <row r="61" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C61" s="17">
         <v>6.7970000000000003E-2</v>
@@ -9758,7 +9764,7 @@
         <v>0.15429999999999999</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="P61" s="17">
         <v>0.48702000000000001</v>
@@ -9797,7 +9803,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="BB61" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="BC61" s="17">
         <v>2.488591</v>
@@ -10386,7 +10392,7 @@
         <v>0.72540000000000004</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="P76" s="17">
         <v>0.45880700000000002</v>
@@ -10399,7 +10405,7 @@
         <v>6.2199999999999998E-2</v>
       </c>
       <c r="AB76" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="AC76" s="17">
         <v>1.1203320000000001</v>
@@ -10412,7 +10418,7 @@
         <v>0.1111</v>
       </c>
       <c r="AO76" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="AP76" s="17">
         <v>1.8843049999999999</v>
@@ -14552,15 +14558,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D347722F4CD19B4AA30A301A73DC8334" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5894521c596a9b3719ececfbfae8352c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="720644d8-bc67-4bc2-98e6-cafdf3eee657" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f72124360cbb87227751a8bdb0d3711" ns3:_="">
     <xsd:import namespace="720644d8-bc67-4bc2-98e6-cafdf3eee657"/>
@@ -14692,6 +14689,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14699,14 +14705,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D146190A-AA33-48E7-AB09-7DB1A1D65D6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76604F8E-78E8-4CDF-91A8-810518AD3C85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14720,6 +14718,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D146190A-AA33-48E7-AB09-7DB1A1D65D6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
